--- a/biology/Histoire de la zoologie et de la botanique/Herbiers_universitaires_de_Clermont-Ferrand/Herbiers_universitaires_de_Clermont-Ferrand.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Herbiers_universitaires_de_Clermont-Ferrand/Herbiers_universitaires_de_Clermont-Ferrand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les herbiers universitaires de Clermont-Ferrand sont une collection botanique.
-Il s'agit d'un ensemble de plus d'un million de spécimens et de plus de 620 000 parts[a],[1]. Ils sont le fruit du travail d'environ 500 collecteurs botanistes ayant herborisé du XVIIIe au XXIe siècle.
-Il s’agit de la troisième collection universitaire française et de la quatrième collection nationale[2], toutes institutions confondues, inscrite à l’Index herbariorum édité par le jardin botanique de New York (New York Botanical Garden, NYBG), sous l’acronyme CLF[3].
+Il s'agit d'un ensemble de plus d'un million de spécimens et de plus de 620 000 parts[a],. Ils sont le fruit du travail d'environ 500 collecteurs botanistes ayant herborisé du XVIIIe au XXIe siècle.
+Il s’agit de la troisième collection universitaire française et de la quatrième collection nationale, toutes institutions confondues, inscrite à l’Index herbariorum édité par le jardin botanique de New York (New York Botanical Garden, NYBG), sous l’acronyme CLF.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les herbiers universitaires de Clermont-Ferrand résultent d'un premier transfert de l'ancien muséum de Clermont vers la nouvelle faculté des sciences venant d'intégrer en 1865 l'aile droite du palais universitaire récemment construit dans le jardin botanique Lecoq. 
 En 1905, ils totalisent sept herbiers dont l'un des plus vieux l'herbier Auguste de Saint-Hilaire. 
@@ -546,7 +560,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis cet ensemble de collections n'a cessé de s'enrichir :
 1938 : herbier Chassagne ;
@@ -561,7 +577,7 @@
 2017 : herbier Brunel
 2018 : herbiers Deschâtres, Le Quéré, Labbé
 2019 : herbier Chaffin
-2020 : herbiers Chouard (don du Centre d’étude et de conservation des ressources végétales de Bayonne)[1] et Galtier
+2020 : herbiers Chouard (don du Centre d’étude et de conservation des ressources végétales de Bayonne) et Galtier
 2021 : herbier Lamaison
 2023 : herbier de Jean Guillot
 Ont été aussi réunis à CLF d'autres herbiers : herbiers de l'Académie des sciences belles lettres et arts de Clermont-Ferrand, herbier des hautes-Fagnes (bryologique), herbier IBISCA, Felzines, herbier du collège Jules Ferry de Montluçon et différents autres petits herbiers.
@@ -595,7 +611,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les herbiers universitaires de Clermont-Ferrand sont hébergés au 3 boulevard Lafayette à Clermont-Ferrand (herbiers généraux, collections historiques) et au campus universitaire des Cézeaux à Aubière (collections en cours de restauration, attachage, numérisation). Le service UniVegE a la responsabilité des collections d’herbiers de l’Université Clermont-Auvergne.
 </t>
@@ -626,7 +644,9 @@
           <t>Numérisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cadre d'une collaboration avec la bibliothèque universitaire de l'université Clermont-Auvergne et du programme d'excellence IHMAGES, UniVegE procède à la numérisation et la mise en ligne de ses collections[b]. Au fur et à mesure de leur numérisation, les collections sont intégrées au projet national RECOLNAT qui recense 320 376 planches des herbiers universitaires de Clermont-Ferrand[c].
 </t>
